--- a/results/logistic/dilemma/confidence/topk/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/topk/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>negative</t>
   </si>
@@ -49,601 +49,574 @@
     <t>scary</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>down</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>slowly</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>across</t>
+    <t>dark</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>ho</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
     <t>days</t>
   </si>
   <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>ya</t>
+    <t>few</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>faster</t>
   </si>
   <si>
     <t>single</t>
   </si>
   <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>extremely</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>%</t>
+    <t>algorithms</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>drama</t>
   </si>
   <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>film</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>any</t>
   </si>
   <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>opening</t>
-  </si>
-  <si>
     <t>un</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>ve</t>
   </si>
   <si>
     <t>software</t>
   </si>
   <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>customers</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>with</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>my</t>
+    <t>are</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>wondered</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>manipulating</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>talking</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>manipulate</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>surprised</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>accounts</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>very</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1091,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1120,13 +1093,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.8695652173913043</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1138,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>0.8315789473684211</v>
+        <v>0.8210526315789474</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1162,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1170,13 +1143,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7021276595744681</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1188,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.8245614035087719</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1212,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1220,13 +1193,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1238,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1262,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1270,49 +1243,49 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>8</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7">
-        <v>0.78</v>
-      </c>
-      <c r="L7">
-        <v>39</v>
-      </c>
-      <c r="M7">
-        <v>39</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1320,13 +1293,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1338,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1362,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1391,16 +1364,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1412,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1441,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.6756756756756757</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1470,13 +1443,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1488,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1512,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1520,13 +1493,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1538,31 +1511,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.5714285714285714</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1570,13 +1543,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1591,16 +1564,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1612,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1620,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.5777777777777777</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1638,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1662,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1670,13 +1643,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1688,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1712,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1720,13 +1693,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1738,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1770,13 +1743,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1791,16 +1764,16 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1812,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1820,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1838,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.4137931034482759</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1862,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1870,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1888,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K19">
         <v>0.4</v>
@@ -1920,13 +1893,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.4857142857142857</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1938,31 +1911,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>18</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20">
-        <v>0.4</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1970,13 +1943,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.4782608695652174</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1988,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K21">
         <v>0.375</v>
@@ -2020,13 +1993,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.4705882352941176</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2038,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2062,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2070,13 +2043,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.4545454545454545</v>
+        <v>0.425</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2088,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>0.3333333333333333</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2112,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2120,13 +2093,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.3939393939393939</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2138,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>0.3333333333333333</v>
@@ -2170,13 +2143,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.3846153846153846</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2188,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>0.3333333333333333</v>
@@ -2220,13 +2193,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.3461538461538461</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2238,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.3333333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2262,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2270,13 +2243,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.3428571428571429</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2288,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K27">
-        <v>0.296875</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2312,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2320,13 +2293,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2338,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.2962962962962963</v>
+        <v>0.25</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2362,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2370,38 +2343,38 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.3181818181818182</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="L29">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>7</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
       <c r="N29">
         <v>0</v>
       </c>
@@ -2412,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2420,13 +2393,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2438,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2462,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2470,13 +2443,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2488,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.2058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2512,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2520,13 +2493,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.2857142857142857</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2538,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K32">
         <v>0.2</v>
@@ -2570,13 +2543,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2588,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K33">
         <v>0.2</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2612,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2620,13 +2593,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2638,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K34">
         <v>0.2</v>
@@ -2670,13 +2643,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2688,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K35">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2712,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2720,13 +2693,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2738,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K36">
         <v>0.1875</v>
@@ -2770,13 +2743,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2788,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K37">
         <v>0.1818181818181818</v>
@@ -2820,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2838,19 +2811,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K38">
-        <v>0.1724137931034483</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2862,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2870,7 +2843,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2888,19 +2861,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K39">
-        <v>0.1690140845070423</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2912,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2920,7 +2893,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.1875</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2938,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K40">
-        <v>0.1666666666666667</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2962,21 +2935,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2988,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K41">
         <v>0.1666666666666667</v>
@@ -3017,16 +2990,16 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3038,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>0.1666666666666667</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3062,21 +3035,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1578947368421053</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3091,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K43">
         <v>0.1538461538461539</v>
@@ -3117,16 +3090,16 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3138,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>0.1475409836065574</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3162,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3188,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K45">
-        <v>0.1428571428571428</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3212,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46">
         <v>0.1428571428571428</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46">
-        <v>0.1333333333333333</v>
-      </c>
       <c r="L46">
         <v>2</v>
       </c>
@@ -3262,21 +3235,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>0.1428571428571428</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3288,19 +3261,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K47">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3312,21 +3285,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3338,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K48">
-        <v>0.1212121212121212</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L48">
         <v>4</v>
@@ -3362,21 +3335,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1307692307692308</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3388,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K49">
-        <v>0.1147540983606557</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L49">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3412,21 +3385,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>972</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.12</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3438,19 +3411,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K50">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3462,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3488,19 +3461,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K51">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3512,15 +3485,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3538,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K52">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3562,15 +3535,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3588,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K53">
-        <v>0.1</v>
+        <v>0.1083788706739526</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3612,21 +3585,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08333333333333333</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3638,19 +3611,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K54">
-        <v>0.0975609756097561</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3662,15 +3635,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3688,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3712,21 +3685,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08333333333333333</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3738,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K56">
-        <v>0.09090909090909091</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3762,15 +3735,15 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07142857142857142</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3788,19 +3761,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K57">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3812,21 +3785,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0673076923076923</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3838,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K58">
         <v>0.08333333333333333</v>
@@ -3867,10 +3840,10 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3888,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K59">
-        <v>0.08196721311475409</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3912,21 +3885,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06666666666666667</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3938,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K60">
-        <v>0.07692307692307693</v>
+        <v>0.0625</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3962,46 +3935,46 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.06382978723404255</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K61">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="L61">
         <v>3</v>
       </c>
-      <c r="D61">
+      <c r="M61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>44</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K61">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="L61">
-        <v>4</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
       <c r="N61">
         <v>0</v>
       </c>
@@ -4012,21 +3985,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4038,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K62">
-        <v>0.07142857142857142</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4062,15 +4035,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4088,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K63">
-        <v>0.07142857142857142</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4112,21 +4085,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05714285714285714</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4138,19 +4111,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K64">
-        <v>0.07142857142857142</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4162,21 +4135,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05555555555555555</v>
+        <v>0.0625</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4188,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K65">
-        <v>0.06666666666666667</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4212,21 +4185,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05263157894736842</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4238,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K66">
-        <v>0.0625</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4262,15 +4235,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05263157894736842</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4288,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K67">
-        <v>0.05882352941176471</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4312,15 +4285,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05263157894736842</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4338,19 +4311,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K68">
-        <v>0.05555555555555555</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4362,21 +4335,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04761904761904762</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4388,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K69">
-        <v>0.05263157894736842</v>
+        <v>0.02</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4412,15 +4385,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.04545454545454546</v>
+        <v>0.04</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4438,19 +4411,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K70">
-        <v>0.05263157894736842</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4462,15 +4435,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04545454545454546</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4488,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K71">
-        <v>0.04545454545454546</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4512,15 +4485,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.04</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4538,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K72">
-        <v>0.03478260869565217</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4562,21 +4535,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.03846153846153846</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4588,19 +4561,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K73">
-        <v>0.03333333333333333</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4612,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03571428571428571</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4638,19 +4611,19 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K74">
-        <v>0.03225806451612903</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4662,15 +4635,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.03448275862068965</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4688,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K75">
-        <v>0.0273972602739726</v>
+        <v>0.007792207792207792</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4712,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>71</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0303030303030303</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4738,19 +4711,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K76">
-        <v>0.02380952380952381</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4762,21 +4735,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>41</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02830188679245283</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4788,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K77">
-        <v>0.02173913043478261</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4812,15 +4785,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02439024390243903</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4838,19 +4811,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K78">
-        <v>0.02105263157894737</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4862,15 +4835,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02380952380952381</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4888,19 +4861,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K79">
-        <v>0.02</v>
+        <v>0.005420054200542005</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4912,15 +4885,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>49</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02272727272727273</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4938,19 +4911,19 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K80">
-        <v>0.01558441558441558</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4962,39 +4935,39 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>379</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>87</v>
       </c>
-      <c r="B81">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>45</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K81">
-        <v>0.01098901098901099</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5012,21 +4985,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>90</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.01941747572815534</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5038,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K82">
-        <v>0.0101010101010101</v>
+        <v>0.004213483146067416</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5062,15 +5035,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>196</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01851851851851852</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5088,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K83">
-        <v>0.005025125628140704</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5112,21 +5085,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>198</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.01666666666666667</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5138,39 +5111,39 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="K84">
-        <v>0.004213483146067416</v>
+        <v>0.003420752565564424</v>
       </c>
       <c r="L84">
         <v>3</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>709</v>
+        <v>874</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.01587301587301587</v>
+        <v>0.008</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5188,39 +5161,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K85">
-        <v>0.003420752565564424</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
         <v>3</v>
       </c>
-      <c r="M85">
-        <v>4</v>
-      </c>
       <c r="N85">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="O85">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>874</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01408450704225352</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5238,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K86">
-        <v>0.003174603174603175</v>
+        <v>0.003169572107765452</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5262,15 +5235,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>314</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0136986301369863</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5288,60 +5261,60 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K87">
-        <v>0.003128258602711158</v>
+        <v>0.003121748178980229</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01265822784810127</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K88">
         <v>0.002898550724637681</v>
@@ -5367,16 +5340,16 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.01136363636363636</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5388,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K89">
-        <v>0.002710027100271003</v>
+        <v>0.002728512960436562</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5412,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>368</v>
+        <v>731</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.009900990099009901</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5438,45 +5411,45 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="K90">
-        <v>0.001851851851851852</v>
+        <v>0.002620087336244541</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>539</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.008888888888888889</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5488,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K91">
-        <v>0.001818181818181818</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5512,15 +5485,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>549</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.008771929824561403</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5538,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K92">
-        <v>0.001743679163034002</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="L92">
         <v>2</v>
@@ -5562,15 +5535,15 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>1145</v>
+        <v>950</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.008695652173913044</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5588,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K93">
-        <v>0.001584786053882726</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5612,15 +5585,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>630</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.008</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5638,45 +5611,45 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="K94">
-        <v>0.001506024096385542</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>663</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.008</v>
+        <v>0.003586800573888092</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5688,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>124</v>
+        <v>2778</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K95">
-        <v>0.001366120218579235</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5712,139 +5685,139 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>731</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
-        <v>0.006944444444444444</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>143</v>
+        <v>605</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="K96">
-        <v>0.001283697047496791</v>
+        <v>0.001152073732718894</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>778</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.0022271714922049</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>448</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B97">
-        <v>0.006688963210702341</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>297</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K97">
-        <v>0.001080302484695715</v>
+        <v>0.001048218029350105</v>
       </c>
       <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="M97">
-        <v>14</v>
-      </c>
       <c r="N97">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="O97">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>2774</v>
+        <v>953</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.006578947368421052</v>
+        <v>0.002094240837696335</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>604</v>
+        <v>953</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K98">
-        <v>0.001050420168067227</v>
+        <v>0.0009560229445506692</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5862,438 +5835,186 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>951</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.006211180124223602</v>
+        <v>0.001748251748251748</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>160</v>
+        <v>1142</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="K99">
-        <v>0.001047120418848168</v>
+        <v>0.0009082652134423251</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>954</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
-        <v>0.005390835579514825</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>369</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K100">
-        <v>0.0009587727708533077</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>4</v>
-      </c>
-      <c r="N100">
-        <v>0.75</v>
-      </c>
-      <c r="O100">
-        <v>0.25</v>
-      </c>
-      <c r="P100" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q100">
-        <v>1042</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003949730700179534</v>
+        <v>0.001280409731113956</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>2774</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K101">
-        <v>0.0009090909090909091</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="N101">
-        <v>0.5</v>
-      </c>
-      <c r="O101">
-        <v>0.5</v>
-      </c>
-      <c r="P101" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q101">
-        <v>1099</v>
+        <v>780</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003759398496240601</v>
+        <v>0.001142857142857143</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>265</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K102">
-        <v>0.000576036866359447</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>1735</v>
+        <v>874</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003128258602711158</v>
+        <v>0.001042752867570386</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>956</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K103">
-        <v>0.0002547121752419766</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>0.67</v>
-      </c>
-      <c r="O103">
-        <v>0.33</v>
-      </c>
-      <c r="P103" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>3925</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002870813397129187</v>
+        <v>0.0007637474541751527</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105">
-        <v>0.002564102564102564</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>0.67</v>
-      </c>
-      <c r="F105">
-        <v>0.33</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106">
-        <v>0.001366120218579235</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106">
-        <v>0.5</v>
-      </c>
-      <c r="F106">
-        <v>0.5</v>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107">
-        <v>0.001142857142857143</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>4</v>
-      </c>
-      <c r="E107">
-        <v>0.25</v>
-      </c>
-      <c r="F107">
-        <v>0.75</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108">
-        <v>0.001047120418848168</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108">
-        <v>0.5</v>
-      </c>
-      <c r="F108">
-        <v>0.5</v>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="A109" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109">
-        <v>0.0009090909090909091</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>0.5</v>
-      </c>
-      <c r="F109">
-        <v>0.5</v>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110">
-        <v>0.0005092946269416857</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110">
-        <v>0.67</v>
-      </c>
-      <c r="F110">
-        <v>0.33</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110">
         <v>3925</v>
       </c>
     </row>
